--- a/dataFile/information.xlsx
+++ b/dataFile/information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thinkpad\Documents\Zalo Received Files\evotek\evotek\typescriptsPlaywright\dataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D966F53-9EE2-4974-BFA6-C7F4BBF23294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57DB41A-4EA7-447B-95C5-8EBE4C66BC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5820" yWindow="3195" windowWidth="14670" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <t>huy3@gmail.com</t>
   </si>
   <si>
-    <t>hu</t>
+    <t>huy1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -419,9 +419,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="huy1@gmail" xr:uid="{5E55008E-0D2E-4CB0-BFBA-70F49943050B}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{492A0E53-A34B-4309-8DA0-0A2389A1A79E}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{765EDF66-6025-4FE6-B0D2-4D936EE70234}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{492A0E53-A34B-4309-8DA0-0A2389A1A79E}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{765EDF66-6025-4FE6-B0D2-4D936EE70234}"/>
+    <hyperlink ref="A2" r:id="rId3" display="huy2@gmail.com" xr:uid="{3094C76B-2797-4D26-A863-29CB10211C4F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
